--- a/data/trans_bre/P12_2_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.400983079220465</v>
+        <v>6.410404891991749</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.63190952510023</v>
+        <v>5.571872653310471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.210311153978224</v>
+        <v>5.950783000284988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.728115043826343</v>
+        <v>3.134567402510289</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2091838427114099</v>
+        <v>0.2080027341792136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2547995513624681</v>
+        <v>0.2485841254699278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2869698651065124</v>
+        <v>0.2774609347159337</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1031276809846676</v>
+        <v>0.1199538913554701</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.4860535048188</v>
+        <v>16.34786403344195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.14651958821105</v>
+        <v>13.31181616134921</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.12921367173743</v>
+        <v>13.37717046754508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.54110798899124</v>
+        <v>13.38863196898851</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6819981096644638</v>
+        <v>0.6759839712886083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7199737744675085</v>
+        <v>0.7266342714113746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7326912295778688</v>
+        <v>0.7479628811401641</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6175751064869597</v>
+        <v>0.6753348435728285</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.142079487536922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.861804770300258</v>
+        <v>6.861804770300262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4575467708941598</v>
@@ -749,7 +749,7 @@
         <v>0.3479301741395295</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4983059808614419</v>
+        <v>0.4983059808614421</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.804783261055249</v>
+        <v>5.26694633671825</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.036018594578371</v>
+        <v>3.778235969996296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.329027014186722</v>
+        <v>1.63472867818194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.930379524630188</v>
+        <v>3.484826347334154</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2249834959685732</v>
+        <v>0.2435806454380895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2233176534145863</v>
+        <v>0.2045167100156555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07100139194088582</v>
+        <v>0.1007207955031809</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2528897268328001</v>
+        <v>0.2218549729721519</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.55475030919406</v>
+        <v>12.34166106124633</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.27584408849428</v>
+        <v>11.17830367341029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.839592648099053</v>
+        <v>8.478201294384419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.783405480772075</v>
+        <v>9.598540031900081</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7179850454040272</v>
+        <v>0.6992578888301825</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7940115965208518</v>
+        <v>0.7677336969400729</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6666538258844725</v>
+        <v>0.6337323280996306</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.815843426496336</v>
+        <v>0.7878107933327863</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.3772536558605512</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6317644513056212</v>
+        <v>0.6317644513056211</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.546751723881233</v>
+        <v>5.586083602752942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.648440115420756</v>
+        <v>2.610328147243304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.091247329322526</v>
+        <v>1.219787074166226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.988689160016735</v>
+        <v>5.202388248814923</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3275892077580093</v>
+        <v>0.3484423893472686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1539381716766847</v>
+        <v>0.15196607173436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08344468882140581</v>
+        <v>0.0801423056408668</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3326665767266244</v>
+        <v>0.3528580806205995</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.55991059125116</v>
+        <v>12.53376496707845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.39400455367306</v>
+        <v>10.56757758173512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.340149494454973</v>
+        <v>8.539751357831243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.97580966389325</v>
+        <v>10.85085974212801</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9272613078716877</v>
+        <v>0.940174571529212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7564752366007097</v>
+        <v>0.7618410937450457</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7569056474801031</v>
+        <v>0.7779420774490272</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9704392785864352</v>
+        <v>0.9321624635458112</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.540534910234724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.736867590334247</v>
+        <v>3.736867590334245</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2269218685194817</v>
@@ -949,7 +949,7 @@
         <v>0.1816261268597232</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1724858137842186</v>
+        <v>0.1724858137842185</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.423792619542078</v>
+        <v>-1.390125686715677</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.499043998428046</v>
+        <v>3.794428174025842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.370452548690833</v>
+        <v>-1.92957300609373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001799905389468088</v>
+        <v>-0.5096351055740774</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06216657037593349</v>
+        <v>-0.06373954859301531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2338413342919613</v>
+        <v>0.1908060904923861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1503073387453165</v>
+        <v>-0.1170045914104968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.002086512491221976</v>
+        <v>-0.02144415191596088</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.00644617728686</v>
+        <v>10.49280926722358</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.84168048846018</v>
+        <v>15.14187845534603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.579329271143581</v>
+        <v>7.531091534725487</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.877979989737731</v>
+        <v>7.444522229228631</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6351110836673305</v>
+        <v>0.5917719176764478</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.099825372976942</v>
+        <v>1.049550398727141</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6412457942740695</v>
+        <v>0.6662354496045408</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4042192649508756</v>
+        <v>0.3946919066919934</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.91732428157319</v>
+        <v>7.921859913624132</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.03564998988027</v>
+        <v>6.214806780881702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.686218425644329</v>
+        <v>4.605832524879569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.838278817952423</v>
+        <v>4.917040194604326</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3873016443591619</v>
+        <v>0.3814007949318793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3336661197663067</v>
+        <v>0.3346665807201336</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.280333268698809</v>
+        <v>0.2750003370418595</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2698287546047479</v>
+        <v>0.2733916719794892</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.12769325792063</v>
+        <v>12.10429414624601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.05640824252601</v>
+        <v>10.40091739452207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.601197280572739</v>
+        <v>8.370844392199714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.355973430151588</v>
+        <v>8.329939973721848</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6575104437174855</v>
+        <v>0.6466077711069573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6177275697269595</v>
+        <v>0.638658445518089</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5782061414108117</v>
+        <v>0.5606749807451941</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5224068587296214</v>
+        <v>0.5245568670999571</v>
       </c>
     </row>
     <row r="19">
